--- a/Functional Safety word files/02_HazardAnalysisAndRiskAssessment.xlsx
+++ b/Functional Safety word files/02_HazardAnalysisAndRiskAssessment.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="251">
   <si>
     <t>Hazard &amp; Risk Analysis Definitions</t>
   </si>
@@ -646,25 +646,10 @@
     <t>OS04 - Highway</t>
   </si>
   <si>
-    <t>EN02 - Sun blares (degraded view)</t>
-  </si>
-  <si>
-    <t>Normal Driving on Highway during Sun blares with High speed</t>
-  </si>
-  <si>
     <t>EV00 - Collision with other vehicle</t>
   </si>
   <si>
-    <t>Driving on Highway during Sun blares is normal in daytime only</t>
-  </si>
-  <si>
-    <t>OM06 - Towing (active)</t>
-  </si>
-  <si>
     <t>IU02 - Incorrectly used</t>
-  </si>
-  <si>
-    <t>Towing another vehicle on highway with high speed</t>
   </si>
   <si>
     <t>Towing another vehicle on highway with high speed is a normal activity as drivers on highway have habbit of driving fast</t>
@@ -797,6 +782,18 @@
   </si>
   <si>
     <t xml:space="preserve"> Lane departure warning system should limit the Oscillation of steering wheel below Max Torque Amplitude.</t>
+  </si>
+  <si>
+    <t>Normal driving on a highway with a wet slippery road at high speed and correctly used system</t>
+  </si>
+  <si>
+    <t>Driving on Highway during rain is normal activity</t>
+  </si>
+  <si>
+    <t>Normal driving on country roads during normal conditions with high speed and incorrectly used system</t>
+  </si>
+  <si>
+    <t>SD03 - Normal acceleration</t>
   </si>
 </sst>
 </file>
@@ -1571,7 +1568,7 @@
   <dimension ref="A1:AB15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2001,7 +1998,7 @@
         <v>200</v>
       </c>
       <c r="D12" s="57" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="E12" s="23" t="s">
         <v>122</v>
@@ -2011,49 +2008,49 @@
         <v>85</v>
       </c>
       <c r="H12" s="60" t="s">
-        <v>202</v>
+        <v>247</v>
       </c>
       <c r="I12" s="23" t="s">
         <v>67</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="K12" s="25" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="L12" s="23" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M12" s="23" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="N12" s="59" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="O12" s="60" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="P12" s="60" t="s">
-        <v>204</v>
+        <v>248</v>
       </c>
       <c r="Q12" s="60" t="s">
         <v>93</v>
       </c>
       <c r="R12" s="60" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="S12" s="60" t="s">
         <v>129</v>
       </c>
       <c r="T12" s="60" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="U12" s="61" t="s">
-        <v>124</v>
+        <v>197</v>
       </c>
       <c r="V12" s="62" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="W12" s="25"/>
       <c r="X12" s="25"/>
@@ -2067,49 +2064,49 @@
         <v>72</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>84</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>122</v>
+        <v>250</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>207</v>
+        <v>249</v>
       </c>
       <c r="I13" s="23" t="s">
         <v>73</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="K13" s="23" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="L13" s="23" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M13" s="23" t="s">
         <v>91</v>
       </c>
       <c r="N13" s="59" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="O13" s="60" t="s">
         <v>92</v>
       </c>
       <c r="P13" s="23" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="Q13" s="60" t="s">
         <v>93</v>
@@ -2121,13 +2118,13 @@
         <v>95</v>
       </c>
       <c r="T13" s="23" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="U13" s="22" t="s">
         <v>120</v>
       </c>
       <c r="V13" s="62" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="W13" s="25"/>
       <c r="X13" s="25"/>
@@ -2141,67 +2138,67 @@
         <v>74</v>
       </c>
       <c r="B14" s="63" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C14" s="63" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E14" s="63" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="H14" s="63" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="I14" s="23" t="s">
         <v>73</v>
       </c>
       <c r="J14" s="23" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="K14" s="23" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="L14" s="23" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="M14" s="23" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="N14" s="59" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="O14" s="63" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="P14" s="63" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="Q14" s="60" t="s">
         <v>93</v>
       </c>
       <c r="R14" s="63" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="S14" s="63" t="s">
         <v>129</v>
       </c>
       <c r="T14" s="21" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="U14" s="21" t="s">
         <v>197</v>
       </c>
       <c r="V14" s="64" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="W14" s="24"/>
       <c r="X14" s="24"/>
@@ -2218,62 +2215,62 @@
         <v>83</v>
       </c>
       <c r="C15" s="63" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="23" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="I15" s="23" t="s">
         <v>73</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="K15" s="23" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="L15" s="23" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="M15" s="23" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="N15" s="23" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="O15" s="63" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="P15" s="23" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="Q15" s="23" t="s">
         <v>93</v>
       </c>
       <c r="R15" s="23" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="S15" s="23" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="T15" s="63" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="U15" s="21" t="s">
         <v>198</v>
       </c>
       <c r="V15" s="64" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="W15" s="24"/>
       <c r="X15" s="24"/>
@@ -2298,8 +2295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -58047,7 +58044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
